--- a/CH-051 Purchasing together.xlsx
+++ b/CH-051 Purchasing together.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3A3F71-4C3F-4611-AA9F-0A3982B8A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C086BAD1-BB24-4C1F-9649-725BAE8046A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="MyTry" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MyTry!$B$2:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$G$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,55 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
   <si>
     <t>Question</t>
   </si>
@@ -138,6 +187,9 @@
   </si>
   <si>
     <t>Combinations</t>
+  </si>
+  <si>
+    <t>=SUM(--BYROW(IFERROR(O11#=I11:L20,TRUE),LAMBDA(_r,AND(_r))))</t>
   </si>
 </sst>
 </file>
@@ -357,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,6 +494,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,6 +780,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Wisp">
   <a:themeElements>
@@ -974,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -1618,4 +1737,848 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D8A92-BB2A-4C90-BC29-884F3DCE5CE4}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="H1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="33"/>
+      <c r="J2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="15">
+        <v>4</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="15">
+        <v>3</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="24">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="29">
+        <v>2</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="24">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="15">
+        <v>3</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="28">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="28">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" s="5"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="28">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" s="5"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>45308</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" s="5"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>45308</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" t="str" cm="1">
+        <f t="array" ref="H11:H20">_xlfn.UNIQUE($C$3:$C$26)</f>
+        <v>IN-01</v>
+      </c>
+      <c r="I11" t="str" cm="1">
+        <f t="array" ref="I11:L11">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H11),4)))</f>
+        <v>A</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <v>C</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <v>D</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" ref="O11:P11">_xlfn.ANCHORARRAY(INDEX(H22:H26,N11))</f>
+        <v>A</v>
+      </c>
+      <c r="P11" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>45308</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" t="str">
+        <v>IN-05</v>
+      </c>
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12:K12">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H12),4)))</f>
+        <v>B</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <v>D</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>45312</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" t="str">
+        <v>IN-06</v>
+      </c>
+      <c r="I13" t="str" cm="1">
+        <f t="array" ref="I13:K13">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H13),4)))</f>
+        <v>A</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="K13" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>45312</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="19">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" t="str">
+        <v>IN-07</v>
+      </c>
+      <c r="I14" t="str" cm="1">
+        <f t="array" ref="I14:J14">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H14),4)))</f>
+        <v>A</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>45315</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" t="str">
+        <v>IN-09</v>
+      </c>
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15:J15">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H15),4)))</f>
+        <v>A</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="16">
+        <v>45315</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="1" t="str">
+        <v>IN-10</v>
+      </c>
+      <c r="I16" t="str" cm="1">
+        <f t="array" ref="I16">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H16),4)))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="16">
+        <v>45316</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="19">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="1" t="str">
+        <v>IN-11</v>
+      </c>
+      <c r="I17" t="str" cm="1">
+        <f t="array" ref="I17:J17">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H17),4)))</f>
+        <v>A</v>
+      </c>
+      <c r="J17" s="5" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="16">
+        <v>45319</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="1" t="str">
+        <v>IN-13</v>
+      </c>
+      <c r="I18" t="str" cm="1">
+        <f t="array" ref="I18:J18">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H18),4)))</f>
+        <v>B</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="16">
+        <v>45319</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1" t="str">
+        <v>IN-14</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19:K19">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H19),4)))</f>
+        <v>A</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="K19" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="16">
+        <v>45321</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1" t="str">
+        <v>IN-15</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20:J20">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($B$3:$F$26,$C$3:$C$26=H20),4)))</f>
+        <v>B</v>
+      </c>
+      <c r="J20" s="5" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="16">
+        <v>45321</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="19">
+        <v>3</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="16">
+        <v>45326</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="19">
+        <v>4</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" t="str" cm="1">
+        <f t="array" ref="H22:I22">_xlfn.TEXTSPLIT(H3,",")</f>
+        <v>A</v>
+      </c>
+      <c r="I22" t="str">
+        <v>B</v>
+      </c>
+      <c r="M22" t="e" cm="1" vm="1">
+        <f t="array" ref="M22">_xlfn.BYCOL(_xlfn.ANCHORARRAY(H22),_xlfn.LAMBDA(_xlpm._c,FIND(_xlpm._c,I11:L11)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="16">
+        <v>45326</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="19">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" t="str" cm="1">
+        <f t="array" ref="H23:I23">_xlfn.TEXTSPLIT(H4,",")</f>
+        <v>A</v>
+      </c>
+      <c r="I23" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>45326</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19">
+        <v>4</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" t="str" cm="1">
+        <f t="array" ref="H24:I24">_xlfn.TEXTSPLIT(H5,",")</f>
+        <v>C</v>
+      </c>
+      <c r="I24" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="16">
+        <v>45332</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="19">
+        <v>3</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" t="str" cm="1">
+        <f t="array" ref="H25:J25">_xlfn.TEXTSPLIT(H6,",")</f>
+        <v>A</v>
+      </c>
+      <c r="I25" t="str">
+        <v>B</v>
+      </c>
+      <c r="J25" s="5" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>45332</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" t="str" cm="1">
+        <f t="array" ref="H26:K26">_xlfn.TEXTSPLIT(H7,",")</f>
+        <v>A</v>
+      </c>
+      <c r="I26" t="str">
+        <v>B</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="K26" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J31" t="e" vm="2">
+        <f>M22</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="e" vm="2">
+        <f t="dataTable" ref="J32:J36" dt2D="0" dtr="0" r1="N11"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-051 Purchasing together.xlsx
+++ b/CH-051 Purchasing together.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C086BAD1-BB24-4C1F-9649-725BAE8046A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96D9F04-1B7E-4212-8861-A64782B88E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="MyTry" sheetId="2" r:id="rId2"/>
+    <sheet name="MyTry2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MyTry!$B$2:$G$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MyTry2!$B$2:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$G$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -88,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="34">
   <si>
     <t>Question</t>
   </si>
@@ -482,6 +484,7 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,7 +497,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,20 +1113,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="H1" s="32" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="H1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="31"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -1143,7 +1145,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="33"/>
+      <c r="H2" s="34"/>
       <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1743,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181D8A92-BB2A-4C90-BC29-884F3DCE5CE4}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -1761,20 +1763,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="H1" s="32" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="H1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="31"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -1793,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="33"/>
+      <c r="H2" s="34"/>
       <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
@@ -2411,7 +2413,7 @@
         <f t="array" ref="M22">_xlfn.BYCOL(_xlfn.ANCHORARRAY(H22),_xlfn.LAMBDA(_xlpm._c,FIND(_xlpm._c,I11:L11)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R22" s="34" t="s">
+      <c r="R22" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2571,6 +2573,752 @@
       <c r="J36" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF96BD46-D26C-4C20-B392-08F9DB27AF5B}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="H1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="34"/>
+      <c r="J2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="15">
+        <v>4</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="15">
+        <v>3</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="24">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="29">
+        <v>2</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="24">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="15">
+        <v>3</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="28">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="28">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" s="5"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>45306</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="28">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" s="5"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>45308</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" s="5"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>45308</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" s="5"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>45308</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" s="5"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" t="str" cm="1">
+        <f t="array" ref="M12:N12">_xlfn.TEXTSPLIT(H3,",")</f>
+        <v>A</v>
+      </c>
+      <c r="N12" t="str">
+        <v>B</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>45312</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" t="str" cm="1">
+        <f t="array" ref="H13:I17">_xlfn.LET(_xlpm.I,C3:C26,
+     _xlpm.p,E3:E26,
+     _xlpm.comb,H3:H7,
+     _xlpm.c,_xlfn.MAP(_xlfn.UNIQUE(_xlpm.I),_xlfn.LAMBDA(_xlpm.x,_xlfn.CONCAT(_xlfn._xlws.FILTER(_xlpm.p,_xlpm.I=_xlpm.x)))),
+     _xlfn.HSTACK(_xlpm.comb,
+            _xlfn.MAP(_xlpm.comb,
+                _xlfn.LAMBDA(_xlpm.a,
+                       SUM(_xlfn.MAP(_xlpm.c,
+                               _xlfn.LAMBDA(_xlpm.x,
+                                      IFERROR(IF(SUM(FIND(_xlfn.TEXTSPLIT(_xlpm.a,","),_xlpm.x,1))&gt;0,1),0)
+                                             )
+                                     )
+                               )
+                           )
+                      )
+            )
+       )</f>
+        <v>A,B</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13:K22">_xlfn.LET(_xlpm.I,C3:C26,
+     _xlpm.p,E3:E26,
+     _xlpm.comb,H3:H7,
+     _xlpm.c,_xlfn.MAP(_xlfn.UNIQUE(_xlpm.I),_xlfn.LAMBDA(_xlpm.x,_xlfn.CONCAT(_xlfn._xlws.FILTER(_xlpm.p,_xlpm.I=_xlpm.x)))),
+     _xlpm.c
+)</f>
+        <v>ABCD</v>
+      </c>
+      <c r="M13" t="e" cm="1">
+        <f t="array" ref="M13">SUM(FIND(_xlfn.ANCHORARRAY(M12),K16,1))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>45312</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="19">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" t="str">
+        <v>A,C</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" t="str">
+        <v>BCD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>45315</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" t="str">
+        <v>C,D</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" t="str">
+        <v>ABC</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="16">
+        <v>45315</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" t="str">
+        <v>A,B,C</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" t="str">
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="16">
+        <v>45316</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="19">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="1" t="str">
+        <v>A,B,C,D</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" t="str">
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="16">
+        <v>45319</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="1"/>
+      <c r="J18"/>
+      <c r="K18" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="16">
+        <v>45319</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1"/>
+      <c r="J19"/>
+      <c r="K19" t="str">
+        <v>AB</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="16">
+        <v>45321</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
+      <c r="J20"/>
+      <c r="K20" t="str">
+        <v>BC</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="16">
+        <v>45321</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="19">
+        <v>3</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
+      <c r="J21"/>
+      <c r="K21" t="str">
+        <v>ACB</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="16">
+        <v>45326</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="19">
+        <v>4</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="1"/>
+      <c r="J22"/>
+      <c r="K22" t="str">
+        <v>DB</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="16">
+        <v>45326</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="19">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="1"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>45326</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19">
+        <v>4</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="16">
+        <v>45332</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="19">
+        <v>3</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>45332</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
